--- a/src/attributions/attributions_ig_traj_128.xlsx
+++ b/src/attributions/attributions_ig_traj_128.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>-0.08791191509767822</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6271119944186844</v>
+        <v>0.3652384717648946</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.619989097277209</v>
+        <v>0.2396541464402712</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1597,25 +1597,25 @@
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4880236230180358</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.08537322396548806</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.5510410550351014</v>
+        <v>0.1239990704453165</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1962735752894851</v>
+        <v>0.07654635198438114</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1624,52 +1624,52 @@
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.352784393416119</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0.03452832533437529</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.1305243109677252</v>
+        <v>0.2504893028765973</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1844237584390285</v>
+        <v>0.1245368472501413</v>
       </c>
       <c r="X3" t="n">
         <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>-0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1161476073556796</v>
+        <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>-0.08839588270590031</v>
       </c>
       <c r="AC3" t="n">
         <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0375572762940889</v>
+        <v>0.02599812769913906</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.1743284512513623</v>
+        <v>0.06597689992627845</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
@@ -1678,52 +1678,52 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.3688228427595807</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0.02437204485091017</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.1101692608800099</v>
+        <v>-0.1129339502583718</v>
       </c>
       <c r="AN3" t="n">
         <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.03756238391879314</v>
+        <v>-0.09366500658296256</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.02656303526001606</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0.05915053257121387</v>
       </c>
       <c r="AU3" t="n">
         <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.4404561257806722</v>
+        <v>0.3192179136651396</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1604259145615042</v>
+        <v>0.5169386104930795</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,49 +1732,49 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2442474496193027</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>-0.1917204755376496</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.1727092958814063</v>
+        <v>-0.09872791696019362</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1790641857759448</v>
+        <v>0.006941535062423008</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.02495651900901395</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>-0.04835628181753571</v>
       </c>
       <c r="BM3" t="n">
         <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1499121727238896</v>
+        <v>0.2854305221469292</v>
       </c>
       <c r="BO3" t="n">
         <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1398793323075263</v>
+        <v>0.2526280480221357</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
@@ -1783,25 +1783,25 @@
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.07544305081970616</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.007786482781398975</v>
       </c>
       <c r="BV3" t="n">
         <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.2791128680900975</v>
+        <v>0.09265800225158566</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.3794838498707157</v>
+        <v>0.4369604062011576</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1810,25 +1810,25 @@
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.3902449324872064</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.008511171944066139</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.2065833157719318</v>
+        <v>-0.08010125009402917</v>
       </c>
       <c r="CG3" t="n">
         <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.1200317186734828</v>
+        <v>-0.08164925740652436</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
@@ -1837,28 +1837,28 @@
         <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.07624724779744532</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0.02229970839259613</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.01373814376600444</v>
+        <v>0.1354062139262281</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.02386901237215853</v>
+        <v>-0.4500000834416313</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1867,22 +1867,22 @@
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1724551920902572</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0.01587143813837826</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.1797234958604307</v>
+        <v>-0.05250876139995658</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.2459161727234362</v>
+        <v>-0.008322234153447973</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.1118585405242719</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0.0590727920587358</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.1978358467188691</v>
+        <v>0.00498859946268629</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.06077284509283915</v>
+        <v>-0.1614417890626763</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,28 +1918,28 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.003384026411460618</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.2856152664897854</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.195162720563968</v>
+        <v>-0.04503199957650542</v>
       </c>
       <c r="DQ3" t="n">
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.02741904988252356</v>
+        <v>-0.1739695312280433</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,22 +1948,22 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.09777092012759908</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.1078502800891281</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.004060755506369608</v>
+        <v>-0.1033759884523719</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.06387298605433506</v>
+        <v>-0.1472334992593927</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -1975,76 +1975,76 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.002139130655634551</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.08618019697294174</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.2159012005048174</v>
+        <v>-0.2066990331694972</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.06541935639957423</v>
+        <v>0.01643869367855903</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.00228222780904789</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>-0.1773167831098153</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.0220896944591502</v>
+        <v>-0.04739366264163417</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.1058921574449581</v>
+        <v>-0.2330251890355333</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.1159435334382852</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>-0.0357864168045094</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.2206931961855383</v>
+        <v>-0.05711825812381189</v>
       </c>
       <c r="FA3" t="n">
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.1761263605870096</v>
+        <v>-0.02618076783266718</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
@@ -2056,22 +2056,22 @@
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.1365654327410347</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>0.007079581701270169</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.154128441108788</v>
+        <v>-0.01342359636414953</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.2632318681129277</v>
+        <v>0.1236269385948111</v>
       </c>
       <c r="FL3" t="n">
         <v>-0</v>
@@ -2083,61 +2083,61 @@
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.1939276183761919</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>-0.00236744191515991</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.09611548925615043</v>
+        <v>-0.002079961452376161</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.001881667839605162</v>
+        <v>-0.004609126219167209</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0007503675111983668</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>-0</v>
+        <v>-0.03535355530336528</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.1149463765376852</v>
+        <v>0.1078957581187904</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD3" t="n">
         <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.05919747200349249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.8710394671631164</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2512856659710462</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.3466994843504567</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.122079021419095</v>
+        <v>-0.02592194865264628</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2166,49 +2166,49 @@
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4062314681333812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.4556444676248363</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1628139258703199</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.2224351465869572</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1396468381007606</v>
+        <v>-0.08688081622108408</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3310686752753789</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.2386168400308899</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01542156852857433</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.004706592326065299</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1802235525432808</v>
+        <v>0.03525177933438636</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,190 +2217,190 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1098595560226554</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.1816170357256561</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.0486438267382225</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.07097230722584086</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1401785910143255</v>
+        <v>-0.05676396467140446</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.1960344703984383</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.1130784868498021</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.0127448992350362</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.04611827837150441</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.155694801426237</v>
+        <v>-0.01659681675032569</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.01565428261475085</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.610078158210688</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.3213593286122309</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0.06485592075789547</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.06089705229940395</v>
+        <v>0.2253918209457476</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.22578381891559</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.1174423432048983</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.1129041185134042</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.1755382247389391</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.04427986503002306</v>
+        <v>-0.3254139257698298</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.04807193370636242</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.09883948564861393</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0433315056235016</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.08281640346023919</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1101474888035524</v>
+        <v>0.04604402312203675</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.1468099852761211</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0</v>
+        <v>0.4249048660377459</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.1293171247891083</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>-0.0163943715699826</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.04121047452233543</v>
+        <v>0.05227530519769653</v>
       </c>
       <c r="BZ4" t="n">
         <v>-0</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.2842450288968729</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.1722846603082942</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.08357783092841492</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.0522259966257269</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.04884197216552274</v>
+        <v>-0.0616690809212305</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ4" t="n">
         <v>-0</v>
@@ -2409,49 +2409,49 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.08282615188275433</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.04771695902637367</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.02255926871635486</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.1195011580089848</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.0005750589913823648</v>
+        <v>-0.2081288149867093</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1633370174176223</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0.1504121897238372</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.04960983428854935</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.1031286187377086</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.007868809004679641</v>
+        <v>-0.08131797883495366</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2463,25 +2463,25 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.0755326887076623</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.08800648742230996</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.01400548179034535</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.00403685740341776</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.001673462369481381</v>
+        <v>-0.0008672286362950778</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
         <v>-0</v>
@@ -2490,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.08089273574536575</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.1167725323986862</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.07718219394251866</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>-0.01262838413707638</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.007009592857306107</v>
+        <v>-0.08832718192617835</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
@@ -2517,22 +2517,22 @@
         <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.1286498164169957</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0.09147843942486768</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.04297582716325084</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.04346785307112511</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01659590661948994</v>
+        <v>-0.11933987994309</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2544,22 +2544,22 @@
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01846615084771178</v>
+        <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.07438680506875948</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.04413716643611092</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.1328155425446202</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.1847440975411685</v>
+        <v>-0.0132331647124434</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,52 +2568,52 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.07397958155151976</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>-0.130351048731169</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.1236284035327022</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.0993126960383089</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.006029145986846186</v>
+        <v>-0.08619733833051732</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.1735791442898563</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.1587870425906422</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.06509302943318904</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.08461662330145463</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.05117289996082434</v>
+        <v>-0.07397484186661744</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2625,49 +2625,49 @@
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.1217135557527399</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.00306564297489327</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.1056547247122801</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.120156663262097</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.07372593409858803</v>
+        <v>-0.05823557475915377</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.1151494445899409</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.006681313895965726</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.09653756893765728</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>0.01603093088226933</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0009943608075546736</v>
+        <v>0.0001747851858335074</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0088366644522454</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.02983010965216977</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.03267691578960656</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.1008859144563786</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -2700,21 +2700,21 @@
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
         <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.07257199697311732</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.2425791943602417</v>
       </c>
       <c r="C5" t="n">
         <v>-0</v>
@@ -2723,25 +2723,25 @@
         <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2165233716691537</v>
+        <v>0.03948961367028365</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>1.039424316288835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4526479359880187</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2840349447321585</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.04876372077303414</v>
       </c>
       <c r="L5" t="n">
         <v>-0</v>
@@ -2750,133 +2750,133 @@
         <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1701674239268544</v>
+        <v>-0.04578065996010378</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.6648962914560094</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2874716120901573</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.06267363463641204</v>
+        <v>-0</v>
       </c>
       <c r="S5" t="n">
         <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.04445264007489063</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.4313367128033858</v>
+        <v>0.1390882623365663</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.09360199783974275</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.1756093193732827</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03580447911801847</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.0862103142087717</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1799279951972671</v>
+        <v>0.03746990187958665</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.03834152391748481</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.04376750409838881</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2397838911569285</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.05620125093308213</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1401907290163687</v>
+        <v>-0.01401817233819889</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0.1126852198399709</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01312192939018054</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.005107646080145955</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.2629347926257324</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.1777011310474989</v>
+        <v>0.1799036171089354</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0.5507711793394763</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.09431701973421827</v>
+        <v>-0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.4150647105323306</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.1136806873328035</v>
       </c>
       <c r="BE5" t="n">
         <v>-0</v>
@@ -2885,52 +2885,52 @@
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.4598688052087814</v>
+        <v>0.03452265957999068</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>0.2621497391275386</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3974874549728756</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.09894598635048067</v>
+        <v>-0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.2397711881079061</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.04780533787173401</v>
+        <v>-0.03131023094121513</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>0.01368471781198003</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.03046571924159691</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
         <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.08780634845209632</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.0880743442531438</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2939,106 +2939,106 @@
         <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.1829588558098827</v>
+        <v>0.09956395925869309</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0.3818101188557561</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.04924867576524143</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0.2774437064882933</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>0.03870547697756033</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.0341045880364684</v>
+        <v>-0.02537038677676486</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>-0.2223907145340299</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.09002205321865132</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.06361287674022147</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
         <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.005626666003567974</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.05826681240139377</v>
+        <v>-0.2433562690984757</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>-0.01264746494787562</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.08861278730693437</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0.02652973524692679</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>0.01051940405543249</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
         <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.00368373930075047</v>
+        <v>-0.03557884242621811</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>-0.2048391539333881</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.09166216679182776</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.07500715541294366</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.009761012824881137</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
@@ -3047,133 +3047,133 @@
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.167711040798498</v>
+        <v>-0.08434785283721197</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0.006588519069676749</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0.02145336864793034</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.009293494295577314</v>
+        <v>-0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.004119064919313392</v>
       </c>
       <c r="DP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ5" t="n">
         <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04988119497904557</v>
+        <v>-0.01120694638042884</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>0.08796481884652312</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.09443428442409768</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0.1340513987975706</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>0.01758045352359271</v>
       </c>
       <c r="DY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.04520635507719493</v>
+        <v>0.04222218266670402</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>-0.09562777014214743</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.06317965933365549</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0.02855529742948989</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>0.01244017546309478</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.1601292496220134</v>
+        <v>-0.03211061675892096</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>-0.2016073966354616</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.05082911747397084</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.09658434971392044</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
         <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.009336922105905292</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.1658043696103751</v>
+        <v>-0.0756600225383291</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>-0.04595668011807464</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0.1014287069188969</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0965978408880885</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.008415352557052273</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
@@ -3182,52 +3182,52 @@
         <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.03863434831732322</v>
+        <v>-0.04482410350190383</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>-0.1910745444517064</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.1044143234411415</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.1115586537964279</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.05913748695129061</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.2104649981731247</v>
+        <v>0.006134047963538966</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>-0.1267632157242894</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0.1870147661507054</v>
+        <v>-0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.1696774245003697</v>
+        <v>-0</v>
       </c>
       <c r="FP5" t="n">
         <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.006160730989166677</v>
       </c>
       <c r="FR5" t="n">
         <v>-0</v>
@@ -3236,51 +3236,51 @@
         <v>0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.01549293530576816</v>
+        <v>0.004849996316639962</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0.2334307311742552</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.1103385599716536</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0.03531853725558621</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.007105769839618132</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.01340827320199653</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.05184863442555015</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.2145176165173527</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>-0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>-0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>-0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>-0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>-0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>-0</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>-0</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>-0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR6" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>-0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>-0</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>-0</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>-0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO6" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>-0</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>-0</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>-0</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>-0</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM6" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>-0</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV6" t="n">
         <v>0</v>
@@ -3849,187 +3849,187 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5774919157531754</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.2014250280682592</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2764206493195529</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1415833800984938</v>
+        <v>-0.09200631829579886</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>-0.08062456975761953</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4777207667431705</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1169314741976602</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.178722805900747</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.08008402132002573</v>
+        <v>-0.05743087201827</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-0.04369611145514982</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01128199362884526</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.02952704333614772</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.08586648454985077</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1738174933844546</v>
+        <v>-0.02979583603851226</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.01735652581989239</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>-0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04849273428955855</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.03927605968392829</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.007446103229909411</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.06854198681577263</v>
+        <v>0.02669298569573883</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>-0.007339199732619318</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1053452641428171</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03651967162691664</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.02939600963258053</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.01911447003838209</v>
+        <v>-0.01201795162506261</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>-0.04574413505201786</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2140292113921533</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1293526490807242</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1555153688989747</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.06257959582646816</v>
+        <v>-0.03257341192550978</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0.03328006498120321</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1165453585515007</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.03575674675821035</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.07508797176668099</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1862600050678684</v>
+        <v>-0.05044775971662414</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>-0.01130037250511988</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>-0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.04013606121362935</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.04839045177212065</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.06900715344685866</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
         <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1522299750341298</v>
+        <v>0.03335745530257225</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0.02025835431190887</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,28 +4062,28 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.2225371816128823</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.08692125659463283</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.08093851704559997</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01504540161152902</v>
+        <v>-0.02838406756407246</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0.003180392820273569</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
@@ -4092,25 +4092,25 @@
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.1385800325097132</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.03155980377962528</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.05735469784881402</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.008074773975982621</v>
+        <v>0.009172091426206265</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>0.01876338434070613</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -4119,49 +4119,49 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.001725329971433131</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.002976341298522299</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.01139839338824733</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.10327124889357</v>
+        <v>-0.02266085058941829</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>-0.03165135832988876</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.1208813977895715</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.02430928672717448</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.05799253033291896</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.05386264119076515</v>
+        <v>0.00650877281200749</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0.0298776638715375</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
@@ -4170,109 +4170,109 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.0006785538456886727</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>0.001680684392392846</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01187960686166797</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01446683438047562</v>
+        <v>0.02874136885777884</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>-0.001630632569430148</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0.04018083482359774</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.03208056501992437</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.04422354786486454</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
         <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.02162376793061257</v>
+        <v>0.03122569615192393</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0.02934512895559011</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
         <v>-0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02858933943417912</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.00244316170148128</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.03197392426063159</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0636225126124431</v>
+        <v>-0.0330359396089983</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>-0.01776810495189621</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
         <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.1963018841055953</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.01651200922167229</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.07851403169089849</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
         <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.002099528058147964</v>
+        <v>0.01804569646023286</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>0.007079115459603778</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
@@ -4281,49 +4281,49 @@
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.03570616919291333</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.009539738808423888</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.06604923006325231</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.009197842849794607</v>
+        <v>-0.007461725977477414</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0</v>
+        <v>-0.03341231867210454</v>
       </c>
       <c r="EU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.1224934675494541</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02148890221554492</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.04836602455163965</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.03072385492383511</v>
+        <v>0.002581746181322266</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>0.02802274663835849</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
@@ -4332,85 +4332,85 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.06602823474675837</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.01692005645209731</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.06175181507808992</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
         <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.02519138859413609</v>
+        <v>-0.05096335375462051</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>0.01434206327597235</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.01989981762077488</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.003215376394661621</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.03832315027037853</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.02524020823647338</v>
+        <v>-0.001729138103803006</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>0.01769520306561963</v>
       </c>
       <c r="FV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.04428882053675076</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.02782295327691912</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.04699197906731126</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>-0.02353871312291389</v>
       </c>
       <c r="GE7" t="n">
         <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
         <v>0</v>
@@ -4436,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -4463,13 +4463,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -4490,13 +4490,13 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -4517,13 +4517,13 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -4544,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -4571,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA8" t="n">
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
@@ -4598,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -4625,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -4652,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
@@ -4679,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
@@ -4706,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4814,13 +4814,13 @@
         <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
         <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
         <v>0</v>
@@ -4841,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
@@ -4868,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
@@ -4895,13 +4895,13 @@
         <v>0</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
@@ -4922,13 +4922,13 @@
         <v>0</v>
       </c>
       <c r="FM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4949,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW8" t="n">
         <v>0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>0</v>
